--- a/일정/WBS_7942.xlsx
+++ b/일정/WBS_7942.xlsx
@@ -295,9 +295,6 @@
     <t>대화창 열기</t>
   </si>
   <si>
-    <t>읽지 않은 메시지 표시</t>
-  </si>
-  <si>
     <t>대화목록</t>
   </si>
   <si>
@@ -327,6 +324,10 @@
   </si>
   <si>
     <t>전현지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1098,7 +1099,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="161">
+  <cellXfs count="162">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1411,9 +1412,6 @@
     <xf numFmtId="0" fontId="5" fillId="14" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="11" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="34" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1441,6 +1439,102 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1450,6 +1544,21 @@
     <xf numFmtId="14" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1459,128 +1568,23 @@
     <xf numFmtId="0" fontId="8" fillId="9" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="10" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1772,13 +1776,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>22225</xdr:colOff>
+      <xdr:colOff>45203</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>100965</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>55880</xdr:colOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>221176</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>100965</xdr:rowOff>
     </xdr:to>
@@ -1789,8 +1793,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9049385" y="1945005"/>
-          <a:ext cx="4177030" cy="0"/>
+          <a:off x="9099556" y="1902871"/>
+          <a:ext cx="4622467" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1820,13 +1824,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>27943</xdr:colOff>
+      <xdr:colOff>80806</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>78740</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>154121</xdr:colOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>164021</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>78740</xdr:rowOff>
     </xdr:to>
@@ -1837,8 +1841,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="10749731" y="1118646"/>
-          <a:ext cx="2349425" cy="0"/>
+          <a:off x="10802594" y="1118646"/>
+          <a:ext cx="2584368" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1916,15 +1920,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>46836</xdr:colOff>
+      <xdr:colOff>6565</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>87332</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>170878</xdr:colOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>35859</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>87332</xdr:rowOff>
+      <xdr:rowOff>98612</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1933,8 +1937,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10768624" y="1692014"/>
-          <a:ext cx="2347289" cy="0"/>
+          <a:off x="10728353" y="1692014"/>
+          <a:ext cx="2808353" cy="11280"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1964,13 +1968,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>15251</xdr:colOff>
+      <xdr:colOff>7490</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>80685</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>142198</xdr:colOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>24468</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>80685</xdr:rowOff>
     </xdr:to>
@@ -1981,8 +1985,200 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12126569" y="2277038"/>
-          <a:ext cx="960664" cy="0"/>
+          <a:off x="12118808" y="2277038"/>
+          <a:ext cx="1406507" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="9525" cap="flat" cmpd="sng">
+          <a:prstDash val="solid"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>28924</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>98615</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>130720</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>98615</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="직선 화살표 연결선 8"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12140242" y="2635627"/>
+          <a:ext cx="3436666" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="9525" cap="flat" cmpd="sng">
+          <a:prstDash val="solid"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>18048</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>7042</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="직선 화살표 연결선 8"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14074707" y="2823882"/>
+          <a:ext cx="822711" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="9525" cap="flat" cmpd="sng">
+          <a:prstDash val="solid"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>27008</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>107578</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>16002</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>107578</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="직선 화살표 연결선 8"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14083667" y="3039037"/>
+          <a:ext cx="822711" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="9525" cap="flat" cmpd="sng">
+          <a:prstDash val="solid"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>114</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>98614</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>267014</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>98614</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="직선 화살표 연결선 8"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14612585" y="3236261"/>
+          <a:ext cx="822711" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2305,7 +2501,7 @@
       <pane xSplit="7" ySplit="4" topLeftCell="H5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3:A4"/>
+      <selection pane="bottomRight" activeCell="B19" sqref="B19:B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.4"/>
@@ -2324,52 +2520,52 @@
   <sheetData>
     <row r="1" spans="1:90" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="M1" s="39"/>
-      <c r="N1" s="146" t="s">
+      <c r="N1" s="114" t="s">
         <v>53</v>
       </c>
-      <c r="O1" s="146"/>
-      <c r="P1" s="146"/>
+      <c r="O1" s="114"/>
+      <c r="P1" s="114"/>
       <c r="Q1" s="40"/>
-      <c r="R1" s="146" t="s">
+      <c r="R1" s="114" t="s">
         <v>76</v>
       </c>
-      <c r="S1" s="147"/>
-      <c r="T1" s="147"/>
+      <c r="S1" s="115"/>
+      <c r="T1" s="115"/>
     </row>
     <row r="2" spans="1:90" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="M2" s="41"/>
-      <c r="N2" s="148" t="s">
+      <c r="N2" s="116" t="s">
         <v>78</v>
       </c>
-      <c r="O2" s="148"/>
-      <c r="P2" s="148"/>
+      <c r="O2" s="116"/>
+      <c r="P2" s="116"/>
       <c r="Q2" s="42"/>
-      <c r="R2" s="146" t="s">
+      <c r="R2" s="114" t="s">
         <v>77</v>
       </c>
-      <c r="S2" s="147"/>
-      <c r="T2" s="147"/>
+      <c r="S2" s="115"/>
+      <c r="T2" s="115"/>
     </row>
     <row r="3" spans="1:90" s="2" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="149" t="s">
+      <c r="A3" s="117" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="151" t="s">
+      <c r="B3" s="119" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="153" t="s">
+      <c r="C3" s="121" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="151" t="s">
+      <c r="D3" s="119" t="s">
         <v>44</v>
       </c>
-      <c r="E3" s="151" t="s">
+      <c r="E3" s="119" t="s">
         <v>45</v>
       </c>
-      <c r="F3" s="151" t="s">
+      <c r="F3" s="119" t="s">
         <v>40</v>
       </c>
-      <c r="G3" s="155" t="s">
+      <c r="G3" s="123" t="s">
         <v>42</v>
       </c>
       <c r="H3" s="34" t="s">
@@ -2467,13 +2663,13 @@
       <c r="CL3" s="44"/>
     </row>
     <row r="4" spans="1:90" s="2" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="150"/>
-      <c r="B4" s="152"/>
-      <c r="C4" s="154"/>
-      <c r="D4" s="152"/>
-      <c r="E4" s="152"/>
-      <c r="F4" s="152"/>
-      <c r="G4" s="156"/>
+      <c r="A4" s="118"/>
+      <c r="B4" s="120"/>
+      <c r="C4" s="122"/>
+      <c r="D4" s="120"/>
+      <c r="E4" s="120"/>
+      <c r="F4" s="120"/>
+      <c r="G4" s="124"/>
       <c r="H4" s="13" t="s">
         <v>9</v>
       </c>
@@ -2725,17 +2921,17 @@
       </c>
     </row>
     <row r="5" spans="1:90" x14ac:dyDescent="0.4">
-      <c r="A5" s="139" t="s">
+      <c r="A5" s="125" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="121" t="s">
+      <c r="B5" s="127" t="s">
         <v>71</v>
       </c>
       <c r="C5" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="D5" s="121" t="s">
-        <v>96</v>
+      <c r="D5" s="127" t="s">
+        <v>95</v>
       </c>
       <c r="E5" s="17">
         <v>44270</v>
@@ -2831,31 +3027,31 @@
       <c r="CL5" s="49"/>
     </row>
     <row r="6" spans="1:90" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="140"/>
-      <c r="B6" s="138"/>
+      <c r="A6" s="126"/>
+      <c r="B6" s="128"/>
       <c r="C6" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="D6" s="138"/>
+      <c r="D6" s="128"/>
       <c r="E6" s="17">
         <v>44279</v>
       </c>
       <c r="F6" s="17">
         <v>44288</v>
       </c>
-      <c r="G6" s="104">
-        <v>0.8</v>
+      <c r="G6" s="96">
+        <v>1</v>
       </c>
       <c r="H6" s="52"/>
       <c r="I6" s="53"/>
       <c r="J6" s="53"/>
       <c r="K6" s="36"/>
       <c r="L6" s="36"/>
-      <c r="M6" s="109"/>
-      <c r="N6" s="109"/>
-      <c r="O6" s="109"/>
-      <c r="P6" s="109"/>
-      <c r="Q6" s="109"/>
+      <c r="M6" s="108"/>
+      <c r="N6" s="108"/>
+      <c r="O6" s="108"/>
+      <c r="P6" s="108"/>
+      <c r="Q6" s="108"/>
       <c r="R6" s="95"/>
       <c r="S6" s="95"/>
       <c r="T6" s="95"/>
@@ -2931,17 +3127,17 @@
       <c r="CL6" s="55"/>
     </row>
     <row r="7" spans="1:90" x14ac:dyDescent="0.4">
-      <c r="A7" s="141" t="s">
+      <c r="A7" s="129" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="137" t="s">
+      <c r="B7" s="130" t="s">
         <v>68</v>
       </c>
       <c r="C7" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="D7" s="144" t="s">
-        <v>98</v>
+      <c r="D7" s="135" t="s">
+        <v>97</v>
       </c>
       <c r="E7" s="19">
         <v>44271</v>
@@ -3037,12 +3233,12 @@
       <c r="CL7" s="55"/>
     </row>
     <row r="8" spans="1:90" x14ac:dyDescent="0.4">
-      <c r="A8" s="141"/>
-      <c r="B8" s="137"/>
+      <c r="A8" s="129"/>
+      <c r="B8" s="130"/>
       <c r="C8" s="35" t="s">
         <v>83</v>
       </c>
-      <c r="D8" s="145"/>
+      <c r="D8" s="136"/>
       <c r="E8" s="19">
         <v>44271</v>
       </c>
@@ -3137,13 +3333,13 @@
       <c r="CL8" s="55"/>
     </row>
     <row r="9" spans="1:90" x14ac:dyDescent="0.4">
-      <c r="A9" s="141"/>
-      <c r="B9" s="137"/>
+      <c r="A9" s="129"/>
+      <c r="B9" s="130"/>
       <c r="C9" s="35" t="s">
-        <v>97</v>
-      </c>
-      <c r="D9" s="110" t="s">
-        <v>99</v>
+        <v>96</v>
+      </c>
+      <c r="D9" s="109" t="s">
+        <v>98</v>
       </c>
       <c r="E9" s="17">
         <v>44279</v>
@@ -3151,8 +3347,8 @@
       <c r="F9" s="19">
         <v>44288</v>
       </c>
-      <c r="G9" s="104">
-        <v>0.8</v>
+      <c r="G9" s="96">
+        <v>1</v>
       </c>
       <c r="H9" s="52"/>
       <c r="I9" s="57"/>
@@ -3171,8 +3367,8 @@
       <c r="V9" s="95"/>
       <c r="W9" s="95"/>
       <c r="X9" s="95"/>
-      <c r="Y9" s="111"/>
-      <c r="Z9" s="105"/>
+      <c r="Y9" s="110"/>
+      <c r="Z9" s="104"/>
       <c r="AA9" s="95"/>
       <c r="AB9" s="54"/>
       <c r="AC9" s="54"/>
@@ -3239,13 +3435,13 @@
       <c r="CL9" s="55"/>
     </row>
     <row r="10" spans="1:90" x14ac:dyDescent="0.4">
-      <c r="A10" s="141"/>
-      <c r="B10" s="137" t="s">
+      <c r="A10" s="129"/>
+      <c r="B10" s="130" t="s">
         <v>79</v>
       </c>
-      <c r="C10" s="137"/>
-      <c r="D10" s="129" t="s">
-        <v>96</v>
+      <c r="C10" s="130"/>
+      <c r="D10" s="131" t="s">
+        <v>95</v>
       </c>
       <c r="E10" s="19">
         <v>44273</v>
@@ -3253,8 +3449,8 @@
       <c r="F10" s="19">
         <v>44289</v>
       </c>
-      <c r="G10" s="104">
-        <v>0.9</v>
+      <c r="G10" s="96">
+        <v>1</v>
       </c>
       <c r="H10" s="52"/>
       <c r="I10" s="57"/>
@@ -3273,8 +3469,8 @@
       <c r="V10" s="95"/>
       <c r="W10" s="95"/>
       <c r="X10" s="95"/>
-      <c r="Y10" s="107"/>
-      <c r="Z10" s="105"/>
+      <c r="Y10" s="106"/>
+      <c r="Z10" s="104"/>
       <c r="AA10" s="95"/>
       <c r="AB10" s="95"/>
       <c r="AC10" s="36"/>
@@ -3341,12 +3537,12 @@
       <c r="CL10" s="55"/>
     </row>
     <row r="11" spans="1:90" x14ac:dyDescent="0.4">
-      <c r="A11" s="141"/>
-      <c r="B11" s="142" t="s">
+      <c r="A11" s="129"/>
+      <c r="B11" s="133" t="s">
         <v>72</v>
       </c>
-      <c r="C11" s="143"/>
-      <c r="D11" s="131"/>
+      <c r="C11" s="134"/>
+      <c r="D11" s="132"/>
       <c r="E11" s="17">
         <v>44271</v>
       </c>
@@ -3373,7 +3569,7 @@
       <c r="V11" s="54"/>
       <c r="W11" s="54"/>
       <c r="X11" s="54"/>
-      <c r="Y11" s="108"/>
+      <c r="Y11" s="107"/>
       <c r="Z11" s="52"/>
       <c r="AA11" s="36"/>
       <c r="AB11" s="36"/>
@@ -3441,26 +3637,26 @@
       <c r="CL11" s="55"/>
     </row>
     <row r="12" spans="1:90" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="136" t="s">
+      <c r="A12" s="152" t="s">
         <v>46</v>
       </c>
-      <c r="B12" s="120" t="s">
+      <c r="B12" s="140" t="s">
         <v>58</v>
       </c>
       <c r="C12" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="D12" s="129" t="s">
-        <v>96</v>
-      </c>
-      <c r="E12" s="124">
+      <c r="D12" s="131" t="s">
+        <v>95</v>
+      </c>
+      <c r="E12" s="137">
         <v>44284</v>
       </c>
-      <c r="F12" s="124">
+      <c r="F12" s="137">
         <v>44289</v>
       </c>
-      <c r="G12" s="104">
-        <v>0.8</v>
+      <c r="G12" s="96">
+        <v>1</v>
       </c>
       <c r="H12" s="52"/>
       <c r="I12" s="53"/>
@@ -3479,7 +3675,7 @@
       <c r="V12" s="60"/>
       <c r="W12" s="95"/>
       <c r="X12" s="95"/>
-      <c r="Y12" s="106"/>
+      <c r="Y12" s="105"/>
       <c r="Z12" s="97"/>
       <c r="AA12" s="95"/>
       <c r="AB12" s="36"/>
@@ -3547,16 +3743,16 @@
       <c r="CL12" s="58"/>
     </row>
     <row r="13" spans="1:90" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="136"/>
-      <c r="B13" s="120"/>
+      <c r="A13" s="152"/>
+      <c r="B13" s="140"/>
       <c r="C13" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="D13" s="131"/>
-      <c r="E13" s="125"/>
-      <c r="F13" s="125"/>
-      <c r="G13" s="18">
-        <v>0</v>
+      <c r="D13" s="132"/>
+      <c r="E13" s="138"/>
+      <c r="F13" s="138"/>
+      <c r="G13" s="161">
+        <v>1</v>
       </c>
       <c r="H13" s="52"/>
       <c r="I13" s="53"/>
@@ -3643,18 +3839,18 @@
       <c r="CL13" s="58"/>
     </row>
     <row r="14" spans="1:90" x14ac:dyDescent="0.4">
-      <c r="A14" s="136"/>
-      <c r="B14" s="137" t="s">
+      <c r="A14" s="152"/>
+      <c r="B14" s="130" t="s">
         <v>51</v>
       </c>
-      <c r="C14" s="137"/>
-      <c r="D14" s="112" t="s">
-        <v>101</v>
-      </c>
-      <c r="E14" s="126"/>
-      <c r="F14" s="126"/>
-      <c r="G14" s="20">
-        <v>0</v>
+      <c r="C14" s="130"/>
+      <c r="D14" s="111" t="s">
+        <v>100</v>
+      </c>
+      <c r="E14" s="139"/>
+      <c r="F14" s="139"/>
+      <c r="G14" s="96">
+        <v>1</v>
       </c>
       <c r="H14" s="52"/>
       <c r="I14" s="53"/>
@@ -3741,24 +3937,24 @@
       <c r="CL14" s="58"/>
     </row>
     <row r="15" spans="1:90" x14ac:dyDescent="0.4">
-      <c r="A15" s="136"/>
-      <c r="B15" s="120" t="s">
+      <c r="A15" s="152"/>
+      <c r="B15" s="140" t="s">
         <v>56</v>
       </c>
       <c r="C15" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="D15" s="129" t="s">
-        <v>96</v>
-      </c>
-      <c r="E15" s="124">
+      <c r="D15" s="131" t="s">
+        <v>95</v>
+      </c>
+      <c r="E15" s="137">
         <v>44291</v>
       </c>
-      <c r="F15" s="124">
+      <c r="F15" s="137">
         <v>44293</v>
       </c>
-      <c r="G15" s="18">
-        <v>0</v>
+      <c r="G15" s="96">
+        <v>1</v>
       </c>
       <c r="H15" s="52"/>
       <c r="I15" s="53"/>
@@ -3845,16 +4041,16 @@
       <c r="CL15" s="58"/>
     </row>
     <row r="16" spans="1:90" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="136"/>
-      <c r="B16" s="120"/>
+      <c r="A16" s="152"/>
+      <c r="B16" s="140"/>
       <c r="C16" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="D16" s="131"/>
-      <c r="E16" s="126"/>
-      <c r="F16" s="126"/>
-      <c r="G16" s="18">
-        <v>0</v>
+      <c r="D16" s="132"/>
+      <c r="E16" s="139"/>
+      <c r="F16" s="139"/>
+      <c r="G16" s="96">
+        <v>1</v>
       </c>
       <c r="H16" s="52"/>
       <c r="I16" s="53"/>
@@ -3941,7 +4137,7 @@
       <c r="CL16" s="58"/>
     </row>
     <row r="17" spans="1:90" x14ac:dyDescent="0.4">
-      <c r="A17" s="136"/>
+      <c r="A17" s="152"/>
       <c r="B17" s="32" t="s">
         <v>52</v>
       </c>
@@ -3949,7 +4145,7 @@
         <v>57</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E17" s="88">
         <v>44293</v>
@@ -3957,8 +4153,8 @@
       <c r="F17" s="94">
         <v>44295</v>
       </c>
-      <c r="G17" s="18">
-        <v>0</v>
+      <c r="G17" s="96">
+        <v>1</v>
       </c>
       <c r="H17" s="52"/>
       <c r="I17" s="53"/>
@@ -4045,7 +4241,7 @@
       <c r="CL17" s="58"/>
     </row>
     <row r="18" spans="1:90" x14ac:dyDescent="0.4">
-      <c r="A18" s="136"/>
+      <c r="A18" s="152"/>
       <c r="B18" s="32" t="s">
         <v>55</v>
       </c>
@@ -4053,12 +4249,12 @@
         <v>59</v>
       </c>
       <c r="D18" s="92" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E18" s="93">
         <v>44298</v>
       </c>
-      <c r="F18" s="124">
+      <c r="F18" s="137">
         <v>44316</v>
       </c>
       <c r="G18" s="89">
@@ -4149,20 +4345,20 @@
       <c r="CL18" s="58"/>
     </row>
     <row r="19" spans="1:90" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="136"/>
-      <c r="B19" s="120" t="s">
+      <c r="A19" s="152"/>
+      <c r="B19" s="140" t="s">
         <v>75</v>
       </c>
       <c r="C19" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="D19" s="129" t="s">
-        <v>100</v>
-      </c>
-      <c r="E19" s="124">
+      <c r="D19" s="131" t="s">
+        <v>99</v>
+      </c>
+      <c r="E19" s="137">
         <v>44305</v>
       </c>
-      <c r="F19" s="125"/>
+      <c r="F19" s="138"/>
       <c r="G19" s="18">
         <v>0</v>
       </c>
@@ -4251,14 +4447,14 @@
       <c r="CL19" s="58"/>
     </row>
     <row r="20" spans="1:90" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="136"/>
-      <c r="B20" s="120"/>
+      <c r="A20" s="152"/>
+      <c r="B20" s="140"/>
       <c r="C20" s="32" t="s">
         <v>89</v>
       </c>
-      <c r="D20" s="122"/>
-      <c r="E20" s="125"/>
-      <c r="F20" s="125"/>
+      <c r="D20" s="141"/>
+      <c r="E20" s="138"/>
+      <c r="F20" s="138"/>
       <c r="G20" s="18">
         <v>0</v>
       </c>
@@ -4347,14 +4543,14 @@
       <c r="CL20" s="58"/>
     </row>
     <row r="21" spans="1:90" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="136"/>
-      <c r="B21" s="120"/>
+      <c r="A21" s="152"/>
+      <c r="B21" s="140"/>
       <c r="C21" s="32" t="s">
-        <v>93</v>
-      </c>
-      <c r="D21" s="138"/>
-      <c r="E21" s="126"/>
-      <c r="F21" s="125"/>
+        <v>92</v>
+      </c>
+      <c r="D21" s="128"/>
+      <c r="E21" s="139"/>
+      <c r="F21" s="138"/>
       <c r="G21" s="18">
         <v>0</v>
       </c>
@@ -4443,20 +4639,20 @@
       <c r="CL21" s="58"/>
     </row>
     <row r="22" spans="1:90" x14ac:dyDescent="0.4">
-      <c r="A22" s="136"/>
-      <c r="B22" s="120" t="s">
+      <c r="A22" s="152"/>
+      <c r="B22" s="140" t="s">
         <v>87</v>
       </c>
       <c r="C22" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="D22" s="132" t="s">
-        <v>101</v>
-      </c>
-      <c r="E22" s="124">
+      <c r="D22" s="148" t="s">
+        <v>100</v>
+      </c>
+      <c r="E22" s="137">
         <v>44298</v>
       </c>
-      <c r="F22" s="125"/>
+      <c r="F22" s="138"/>
       <c r="G22" s="18">
         <v>0</v>
       </c>
@@ -4545,14 +4741,14 @@
       <c r="CL22" s="67"/>
     </row>
     <row r="23" spans="1:90" x14ac:dyDescent="0.4">
-      <c r="A23" s="136"/>
-      <c r="B23" s="120"/>
+      <c r="A23" s="152"/>
+      <c r="B23" s="140"/>
       <c r="C23" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="D23" s="133"/>
-      <c r="E23" s="125"/>
-      <c r="F23" s="125"/>
+      <c r="D23" s="149"/>
+      <c r="E23" s="138"/>
+      <c r="F23" s="138"/>
       <c r="G23" s="18">
         <v>0</v>
       </c>
@@ -4641,14 +4837,14 @@
       <c r="CL23" s="67"/>
     </row>
     <row r="24" spans="1:90" x14ac:dyDescent="0.4">
-      <c r="A24" s="136"/>
-      <c r="B24" s="120"/>
+      <c r="A24" s="152"/>
+      <c r="B24" s="140"/>
       <c r="C24" s="87" t="s">
-        <v>94</v>
-      </c>
-      <c r="D24" s="133"/>
-      <c r="E24" s="125"/>
-      <c r="F24" s="125"/>
+        <v>93</v>
+      </c>
+      <c r="D24" s="149"/>
+      <c r="E24" s="138"/>
+      <c r="F24" s="138"/>
       <c r="G24" s="18">
         <v>0</v>
       </c>
@@ -4737,16 +4933,16 @@
       <c r="CL24" s="67"/>
     </row>
     <row r="25" spans="1:90" x14ac:dyDescent="0.4">
-      <c r="A25" s="136"/>
-      <c r="B25" s="120"/>
+      <c r="A25" s="152"/>
+      <c r="B25" s="140"/>
       <c r="C25" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="D25" s="134" t="s">
-        <v>99</v>
-      </c>
-      <c r="E25" s="125"/>
-      <c r="F25" s="125"/>
+      <c r="D25" s="150" t="s">
+        <v>98</v>
+      </c>
+      <c r="E25" s="138"/>
+      <c r="F25" s="138"/>
       <c r="G25" s="18">
         <v>0</v>
       </c>
@@ -4835,14 +5031,14 @@
       <c r="CL25" s="67"/>
     </row>
     <row r="26" spans="1:90" x14ac:dyDescent="0.4">
-      <c r="A26" s="136"/>
-      <c r="B26" s="120"/>
+      <c r="A26" s="152"/>
+      <c r="B26" s="140"/>
       <c r="C26" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="D26" s="133"/>
-      <c r="E26" s="125"/>
-      <c r="F26" s="125"/>
+        <v>94</v>
+      </c>
+      <c r="D26" s="149"/>
+      <c r="E26" s="138"/>
+      <c r="F26" s="138"/>
       <c r="G26" s="18">
         <v>0</v>
       </c>
@@ -4931,14 +5127,14 @@
       <c r="CL26" s="67"/>
     </row>
     <row r="27" spans="1:90" x14ac:dyDescent="0.4">
-      <c r="A27" s="136"/>
-      <c r="B27" s="120"/>
-      <c r="C27" s="32" t="s">
-        <v>92</v>
-      </c>
-      <c r="D27" s="135"/>
-      <c r="E27" s="126"/>
-      <c r="F27" s="126"/>
+      <c r="A27" s="152"/>
+      <c r="B27" s="140"/>
+      <c r="C27" s="113" t="s">
+        <v>101</v>
+      </c>
+      <c r="D27" s="151"/>
+      <c r="E27" s="139"/>
+      <c r="F27" s="139"/>
       <c r="G27" s="18">
         <v>0</v>
       </c>
@@ -5027,7 +5223,7 @@
       <c r="CL27" s="67"/>
     </row>
     <row r="28" spans="1:90" x14ac:dyDescent="0.4">
-      <c r="A28" s="127" t="s">
+      <c r="A28" s="142" t="s">
         <v>14</v>
       </c>
       <c r="B28" s="25" t="s">
@@ -5037,7 +5233,7 @@
         <v>15</v>
       </c>
       <c r="D28" s="29" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E28" s="19">
         <v>44319</v>
@@ -5133,20 +5329,20 @@
       <c r="CL28" s="73"/>
     </row>
     <row r="29" spans="1:90" x14ac:dyDescent="0.4">
-      <c r="A29" s="128"/>
-      <c r="B29" s="129" t="s">
+      <c r="A29" s="143"/>
+      <c r="B29" s="131" t="s">
         <v>73</v>
       </c>
       <c r="C29" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="D29" s="129" t="s">
-        <v>96</v>
-      </c>
-      <c r="E29" s="114">
+      <c r="D29" s="131" t="s">
+        <v>95</v>
+      </c>
+      <c r="E29" s="145">
         <v>44322</v>
       </c>
-      <c r="F29" s="114">
+      <c r="F29" s="145">
         <v>44323</v>
       </c>
       <c r="G29" s="20">
@@ -5237,14 +5433,14 @@
       <c r="CL29" s="65"/>
     </row>
     <row r="30" spans="1:90" x14ac:dyDescent="0.4">
-      <c r="A30" s="128"/>
-      <c r="B30" s="130"/>
+      <c r="A30" s="143"/>
+      <c r="B30" s="144"/>
       <c r="C30" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="D30" s="130"/>
-      <c r="E30" s="115"/>
-      <c r="F30" s="115"/>
+      <c r="D30" s="144"/>
+      <c r="E30" s="146"/>
+      <c r="F30" s="146"/>
       <c r="G30" s="20">
         <v>0</v>
       </c>
@@ -5333,14 +5529,14 @@
       <c r="CL30" s="65"/>
     </row>
     <row r="31" spans="1:90" x14ac:dyDescent="0.4">
-      <c r="A31" s="128"/>
-      <c r="B31" s="130"/>
+      <c r="A31" s="143"/>
+      <c r="B31" s="144"/>
       <c r="C31" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="D31" s="130"/>
-      <c r="E31" s="116"/>
-      <c r="F31" s="116"/>
+      <c r="D31" s="144"/>
+      <c r="E31" s="147"/>
+      <c r="F31" s="147"/>
       <c r="G31" s="20">
         <v>0</v>
       </c>
@@ -5429,12 +5625,12 @@
       <c r="CL31" s="65"/>
     </row>
     <row r="32" spans="1:90" x14ac:dyDescent="0.4">
-      <c r="A32" s="128"/>
-      <c r="B32" s="131"/>
+      <c r="A32" s="143"/>
+      <c r="B32" s="132"/>
       <c r="C32" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="D32" s="131"/>
+      <c r="D32" s="132"/>
       <c r="E32" s="19">
         <v>44326</v>
       </c>
@@ -5529,17 +5725,17 @@
       <c r="CL32" s="65"/>
     </row>
     <row r="33" spans="1:90" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="117" t="s">
+      <c r="A33" s="153" t="s">
         <v>66</v>
       </c>
-      <c r="B33" s="120" t="s">
+      <c r="B33" s="140" t="s">
         <v>60</v>
       </c>
       <c r="C33" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="D33" s="121" t="s">
-        <v>96</v>
+      <c r="D33" s="127" t="s">
+        <v>95</v>
       </c>
       <c r="E33" s="17">
         <v>44333</v>
@@ -5635,12 +5831,12 @@
       <c r="CL33" s="65"/>
     </row>
     <row r="34" spans="1:90" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="117"/>
-      <c r="B34" s="120"/>
+      <c r="A34" s="153"/>
+      <c r="B34" s="140"/>
       <c r="C34" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="D34" s="122"/>
+      <c r="D34" s="141"/>
       <c r="E34" s="17">
         <v>44336</v>
       </c>
@@ -5735,15 +5931,15 @@
       <c r="CL34" s="65"/>
     </row>
     <row r="35" spans="1:90" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="118"/>
-      <c r="B35" s="120" t="s">
+      <c r="A35" s="154"/>
+      <c r="B35" s="140" t="s">
         <v>63</v>
       </c>
       <c r="C35" s="32" t="s">
         <v>64</v>
       </c>
       <c r="D35" s="35" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E35" s="17">
         <v>44306</v>
@@ -5839,13 +6035,13 @@
       <c r="CL35" s="79"/>
     </row>
     <row r="36" spans="1:90" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="119"/>
-      <c r="B36" s="123"/>
+      <c r="A36" s="155"/>
+      <c r="B36" s="156"/>
       <c r="C36" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="D36" s="113" t="s">
-        <v>101</v>
+      <c r="D36" s="112" t="s">
+        <v>100</v>
       </c>
       <c r="E36" s="22">
         <v>44347</v>
@@ -5993,6 +6189,42 @@
     </row>
   </sheetData>
   <mergeCells count="47">
+    <mergeCell ref="F29:F31"/>
+    <mergeCell ref="A33:A36"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="A28:A32"/>
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="D29:D32"/>
+    <mergeCell ref="E29:E31"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="A12:A27"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="F18:F27"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="B22:B27"/>
+    <mergeCell ref="E22:E27"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D7:D8"/>
     <mergeCell ref="N1:P1"/>
     <mergeCell ref="R1:T1"/>
     <mergeCell ref="N2:P2"/>
@@ -6004,42 +6236,6 @@
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="G3:G4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="F18:F27"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="B22:B27"/>
-    <mergeCell ref="F12:F14"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="E22:E27"/>
-    <mergeCell ref="A28:A32"/>
-    <mergeCell ref="B29:B32"/>
-    <mergeCell ref="D29:D32"/>
-    <mergeCell ref="E29:E31"/>
-    <mergeCell ref="D22:D24"/>
-    <mergeCell ref="D25:D27"/>
-    <mergeCell ref="A12:A27"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="F29:F31"/>
-    <mergeCell ref="A33:A36"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="B35:B36"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6991,11 +7187,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="E3:E5"/>
     <mergeCell ref="F3:F5"/>
     <mergeCell ref="G3:J3"/>
     <mergeCell ref="K3:K5"/>
@@ -7004,6 +7195,11 @@
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:J5"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="E3:E5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
